--- a/ExcelFiles/ExcelInputGivingFile.xlsx
+++ b/ExcelFiles/ExcelInputGivingFile.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -22,23 +22,33 @@
     <t>password</t>
   </si>
   <si>
-    <t>sathish</t>
+    <t>rajesh</t>
   </si>
   <si>
-    <t>rajesh</t>
+    <t>sathishkinglove@gmail.com</t>
+  </si>
+  <si>
+    <t>subash)9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -58,13 +68,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -360,7 +376,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -377,22 +393,25 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2">
-        <v>12345678</v>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>87654321</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>